--- a/resourse/调整数据.xlsx
+++ b/resourse/调整数据.xlsx
@@ -5,20 +5,21 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codes\E3D\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codes\PML _auto\resourse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE9EC0D-AA77-49FA-8EB3-EB9193A5CCBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE91FA3-F5A0-449B-B6E6-3BB2ED6A5F4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cylinder Parameters" sheetId="1" r:id="rId1"/>
     <sheet name="Elbow Parameters" sheetId="2" r:id="rId2"/>
-    <sheet name="Tee Parameters" sheetId="3" r:id="rId3"/>
-    <sheet name="Anchor Parameters" sheetId="4" r:id="rId4"/>
-    <sheet name="Flan Parameters" sheetId="5" r:id="rId5"/>
-    <sheet name="Redu Parameters" sheetId="6" r:id="rId6"/>
+    <sheet name="Valv Parameters" sheetId="7" r:id="rId3"/>
+    <sheet name="Tee Parameters" sheetId="3" r:id="rId4"/>
+    <sheet name="Anchor Parameters" sheetId="4" r:id="rId5"/>
+    <sheet name="Flan Parameters" sheetId="5" r:id="rId6"/>
+    <sheet name="Redu Parameters" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="35">
   <si>
     <t>tid</t>
   </si>
@@ -133,6 +134,15 @@
   <si>
     <t>angle</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P1_x</t>
+  </si>
+  <si>
+    <t>P1_y</t>
+  </si>
+  <si>
+    <t>P1_z</t>
   </si>
 </sst>
 </file>
@@ -6751,7 +6761,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
@@ -9406,6 +9416,1922 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5198BDFC-B44B-40AF-8446-F2CA8AA64678}">
+  <dimension ref="A1:L50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>-32329.936740000001</v>
+      </c>
+      <c r="C2">
+        <v>24823.83411</v>
+      </c>
+      <c r="D2">
+        <v>1881.294862</v>
+      </c>
+      <c r="E2">
+        <v>-32329.936740000001</v>
+      </c>
+      <c r="F2">
+        <v>24823.83411</v>
+      </c>
+      <c r="G2">
+        <v>1853.294862</v>
+      </c>
+      <c r="H2">
+        <v>-32329.936740000001</v>
+      </c>
+      <c r="I2">
+        <v>24823.83411</v>
+      </c>
+      <c r="J2">
+        <v>1909.294862</v>
+      </c>
+      <c r="K2">
+        <v>150</v>
+      </c>
+      <c r="L2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>-32329.936740000001</v>
+      </c>
+      <c r="C3">
+        <v>26173.833630000001</v>
+      </c>
+      <c r="D3">
+        <v>1713.231104</v>
+      </c>
+      <c r="E3">
+        <v>-32329.936740000001</v>
+      </c>
+      <c r="F3">
+        <v>26173.833630000001</v>
+      </c>
+      <c r="G3">
+        <v>1685.231104</v>
+      </c>
+      <c r="H3">
+        <v>-32329.936740000001</v>
+      </c>
+      <c r="I3">
+        <v>26173.833630000001</v>
+      </c>
+      <c r="J3">
+        <v>1741.231104</v>
+      </c>
+      <c r="K3">
+        <v>150</v>
+      </c>
+      <c r="L3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-32329.936740000001</v>
+      </c>
+      <c r="C4">
+        <v>27523.833149999999</v>
+      </c>
+      <c r="D4">
+        <v>1741.231104</v>
+      </c>
+      <c r="E4">
+        <v>-32329.936740000001</v>
+      </c>
+      <c r="F4">
+        <v>27523.833149999999</v>
+      </c>
+      <c r="G4">
+        <v>1713.231104</v>
+      </c>
+      <c r="H4">
+        <v>-32329.936740000001</v>
+      </c>
+      <c r="I4">
+        <v>27523.833149999999</v>
+      </c>
+      <c r="J4">
+        <v>1769.231104</v>
+      </c>
+      <c r="K4">
+        <v>150</v>
+      </c>
+      <c r="L4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-32329.936740000001</v>
+      </c>
+      <c r="C5">
+        <v>24823.83411</v>
+      </c>
+      <c r="D5">
+        <v>1549.5165460000001</v>
+      </c>
+      <c r="E5">
+        <v>-32329.936740000001</v>
+      </c>
+      <c r="F5">
+        <v>24823.83411</v>
+      </c>
+      <c r="G5">
+        <v>1371.5165460000001</v>
+      </c>
+      <c r="H5">
+        <v>-32329.936740000001</v>
+      </c>
+      <c r="I5">
+        <v>24823.83411</v>
+      </c>
+      <c r="J5">
+        <v>1727.5165460000001</v>
+      </c>
+      <c r="K5">
+        <v>150</v>
+      </c>
+      <c r="L5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>-32329.936740000001</v>
+      </c>
+      <c r="C6">
+        <v>26173.833630000001</v>
+      </c>
+      <c r="D6">
+        <v>1448.865552</v>
+      </c>
+      <c r="E6">
+        <v>-32329.936740000001</v>
+      </c>
+      <c r="F6">
+        <v>26173.833630000001</v>
+      </c>
+      <c r="G6">
+        <v>1270.865552</v>
+      </c>
+      <c r="H6">
+        <v>-32329.936740000001</v>
+      </c>
+      <c r="I6">
+        <v>26173.833630000001</v>
+      </c>
+      <c r="J6">
+        <v>1626.865552</v>
+      </c>
+      <c r="K6">
+        <v>150</v>
+      </c>
+      <c r="L6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>-32329.936740000001</v>
+      </c>
+      <c r="C7">
+        <v>27523.833149999999</v>
+      </c>
+      <c r="D7">
+        <v>1462.865552</v>
+      </c>
+      <c r="E7">
+        <v>-32329.936740000001</v>
+      </c>
+      <c r="F7">
+        <v>27523.833149999999</v>
+      </c>
+      <c r="G7">
+        <v>1284.865552</v>
+      </c>
+      <c r="H7">
+        <v>-32329.936740000001</v>
+      </c>
+      <c r="I7">
+        <v>27523.833149999999</v>
+      </c>
+      <c r="J7">
+        <v>1640.865552</v>
+      </c>
+      <c r="K7">
+        <v>150</v>
+      </c>
+      <c r="L7">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>-34040.246480000002</v>
+      </c>
+      <c r="C8">
+        <v>26173.833630000001</v>
+      </c>
+      <c r="D8">
+        <v>481.99999989999998</v>
+      </c>
+      <c r="E8">
+        <v>-34012.246480000002</v>
+      </c>
+      <c r="F8">
+        <v>26173.833630000001</v>
+      </c>
+      <c r="G8">
+        <v>481.99999989999998</v>
+      </c>
+      <c r="H8">
+        <v>-34068.246480000002</v>
+      </c>
+      <c r="I8">
+        <v>26173.833630000001</v>
+      </c>
+      <c r="J8">
+        <v>481.99999989999998</v>
+      </c>
+      <c r="K8">
+        <v>150</v>
+      </c>
+      <c r="L8">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>-34040.246480000002</v>
+      </c>
+      <c r="C9">
+        <v>27523.833149999999</v>
+      </c>
+      <c r="D9">
+        <v>481.99999989999998</v>
+      </c>
+      <c r="E9">
+        <v>-34012.246480000002</v>
+      </c>
+      <c r="F9">
+        <v>27523.833149999999</v>
+      </c>
+      <c r="G9">
+        <v>481.99999989999998</v>
+      </c>
+      <c r="H9">
+        <v>-34068.246480000002</v>
+      </c>
+      <c r="I9">
+        <v>27523.833149999999</v>
+      </c>
+      <c r="J9">
+        <v>481.99999989999998</v>
+      </c>
+      <c r="K9">
+        <v>150</v>
+      </c>
+      <c r="L9">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>-34012.246480000002</v>
+      </c>
+      <c r="C10">
+        <v>24823.83411</v>
+      </c>
+      <c r="D10">
+        <v>481.99999989999998</v>
+      </c>
+      <c r="E10">
+        <v>-33984.246480000002</v>
+      </c>
+      <c r="F10">
+        <v>24823.83411</v>
+      </c>
+      <c r="G10">
+        <v>481.99999989999998</v>
+      </c>
+      <c r="H10">
+        <v>-34040.246480000002</v>
+      </c>
+      <c r="I10">
+        <v>24823.83411</v>
+      </c>
+      <c r="J10">
+        <v>481.99999989999998</v>
+      </c>
+      <c r="K10">
+        <v>150</v>
+      </c>
+      <c r="L10">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>-29585.538479999999</v>
+      </c>
+      <c r="C11">
+        <v>24822.264650000001</v>
+      </c>
+      <c r="D11">
+        <v>481.99999989999998</v>
+      </c>
+      <c r="E11">
+        <v>-29557.538479999999</v>
+      </c>
+      <c r="F11">
+        <v>24822.264650000001</v>
+      </c>
+      <c r="G11">
+        <v>481.99999989999998</v>
+      </c>
+      <c r="H11">
+        <v>-29613.538479999999</v>
+      </c>
+      <c r="I11">
+        <v>24822.264650000001</v>
+      </c>
+      <c r="J11">
+        <v>481.99999989999998</v>
+      </c>
+      <c r="K11">
+        <v>150</v>
+      </c>
+      <c r="L11">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>-29557.538479999999</v>
+      </c>
+      <c r="C12">
+        <v>26173.833630000001</v>
+      </c>
+      <c r="D12">
+        <v>481.99999989999998</v>
+      </c>
+      <c r="E12">
+        <v>-29529.538479999999</v>
+      </c>
+      <c r="F12">
+        <v>26173.833630000001</v>
+      </c>
+      <c r="G12">
+        <v>481.99999989999998</v>
+      </c>
+      <c r="H12">
+        <v>-29585.538479999999</v>
+      </c>
+      <c r="I12">
+        <v>26173.833630000001</v>
+      </c>
+      <c r="J12">
+        <v>481.99999989999998</v>
+      </c>
+      <c r="K12">
+        <v>100</v>
+      </c>
+      <c r="L12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>-29529.538479999999</v>
+      </c>
+      <c r="C13">
+        <v>27523.833149999999</v>
+      </c>
+      <c r="D13">
+        <v>481.99999989999998</v>
+      </c>
+      <c r="E13">
+        <v>-29501.538479999999</v>
+      </c>
+      <c r="F13">
+        <v>27523.833149999999</v>
+      </c>
+      <c r="G13">
+        <v>481.99999989999998</v>
+      </c>
+      <c r="H13">
+        <v>-29557.538479999999</v>
+      </c>
+      <c r="I13">
+        <v>27523.833149999999</v>
+      </c>
+      <c r="J13">
+        <v>481.99999989999998</v>
+      </c>
+      <c r="K13">
+        <v>100</v>
+      </c>
+      <c r="L13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>-29501.538479999999</v>
+      </c>
+      <c r="C14">
+        <v>27998.333149999999</v>
+      </c>
+      <c r="D14">
+        <v>481.99999989999998</v>
+      </c>
+      <c r="E14">
+        <v>-29473.538479999999</v>
+      </c>
+      <c r="F14">
+        <v>27998.333149999999</v>
+      </c>
+      <c r="G14">
+        <v>481.99999989999998</v>
+      </c>
+      <c r="H14">
+        <v>-29529.538479999999</v>
+      </c>
+      <c r="I14">
+        <v>27998.333149999999</v>
+      </c>
+      <c r="J14">
+        <v>481.99999989999998</v>
+      </c>
+      <c r="K14">
+        <v>100</v>
+      </c>
+      <c r="L14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>-32329.936740000001</v>
+      </c>
+      <c r="C15">
+        <v>24518.907459999999</v>
+      </c>
+      <c r="D15">
+        <v>2200</v>
+      </c>
+      <c r="E15">
+        <v>-32329.936740000001</v>
+      </c>
+      <c r="F15">
+        <v>24490.907459999999</v>
+      </c>
+      <c r="G15">
+        <v>2200</v>
+      </c>
+      <c r="H15">
+        <v>-32329.936740000001</v>
+      </c>
+      <c r="I15">
+        <v>24546.907459999999</v>
+      </c>
+      <c r="J15">
+        <v>2200</v>
+      </c>
+      <c r="K15">
+        <v>150</v>
+      </c>
+      <c r="L15">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>-33875.809959999999</v>
+      </c>
+      <c r="C16">
+        <v>27988.833149999999</v>
+      </c>
+      <c r="D16">
+        <v>481.99999989999998</v>
+      </c>
+      <c r="E16">
+        <v>-33847.809959999999</v>
+      </c>
+      <c r="F16">
+        <v>27988.833149999999</v>
+      </c>
+      <c r="G16">
+        <v>481.99999989999998</v>
+      </c>
+      <c r="H16">
+        <v>-33903.809959999999</v>
+      </c>
+      <c r="I16">
+        <v>27988.833149999999</v>
+      </c>
+      <c r="J16">
+        <v>481.99999989999998</v>
+      </c>
+      <c r="K16">
+        <v>100</v>
+      </c>
+      <c r="L16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>-34574.984299999996</v>
+      </c>
+      <c r="C17">
+        <v>26848.83339</v>
+      </c>
+      <c r="D17">
+        <v>481.99999989999998</v>
+      </c>
+      <c r="E17">
+        <v>-34574.984299999996</v>
+      </c>
+      <c r="F17">
+        <v>26820.83339</v>
+      </c>
+      <c r="G17">
+        <v>481.99999989999998</v>
+      </c>
+      <c r="H17">
+        <v>-34574.984299999996</v>
+      </c>
+      <c r="I17">
+        <v>26876.83339</v>
+      </c>
+      <c r="J17">
+        <v>481.99999989999998</v>
+      </c>
+      <c r="K17">
+        <v>200</v>
+      </c>
+      <c r="L17">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>-34574.984299999996</v>
+      </c>
+      <c r="C18">
+        <v>25498.833869999999</v>
+      </c>
+      <c r="D18">
+        <v>481.99999989999998</v>
+      </c>
+      <c r="E18">
+        <v>-34574.984299999996</v>
+      </c>
+      <c r="F18">
+        <v>25470.833869999999</v>
+      </c>
+      <c r="G18">
+        <v>481.99999989999998</v>
+      </c>
+      <c r="H18">
+        <v>-34574.984299999996</v>
+      </c>
+      <c r="I18">
+        <v>25526.833869999999</v>
+      </c>
+      <c r="J18">
+        <v>481.99999989999998</v>
+      </c>
+      <c r="K18">
+        <v>200</v>
+      </c>
+      <c r="L18">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>-34574.984299999996</v>
+      </c>
+      <c r="C19">
+        <v>24548.729909999998</v>
+      </c>
+      <c r="D19">
+        <v>481.99999989999998</v>
+      </c>
+      <c r="E19">
+        <v>-34574.984299999996</v>
+      </c>
+      <c r="F19">
+        <v>24520.729909999998</v>
+      </c>
+      <c r="G19">
+        <v>481.99999989999998</v>
+      </c>
+      <c r="H19">
+        <v>-34574.984299999996</v>
+      </c>
+      <c r="I19">
+        <v>24576.729909999998</v>
+      </c>
+      <c r="J19">
+        <v>481.99999989999998</v>
+      </c>
+      <c r="K19">
+        <v>200</v>
+      </c>
+      <c r="L19">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>-34574.984299999996</v>
+      </c>
+      <c r="C20">
+        <v>28333.274290000001</v>
+      </c>
+      <c r="D20">
+        <v>481.99999989999998</v>
+      </c>
+      <c r="E20">
+        <v>-34574.984299999996</v>
+      </c>
+      <c r="F20">
+        <v>28305.274290000001</v>
+      </c>
+      <c r="G20">
+        <v>481.99999989999998</v>
+      </c>
+      <c r="H20">
+        <v>-34574.984299999996</v>
+      </c>
+      <c r="I20">
+        <v>28361.274290000001</v>
+      </c>
+      <c r="J20">
+        <v>481.99999989999998</v>
+      </c>
+      <c r="K20">
+        <v>200</v>
+      </c>
+      <c r="L20">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>-30124.9843</v>
+      </c>
+      <c r="C21">
+        <v>26848.83339</v>
+      </c>
+      <c r="D21">
+        <v>481.99999989999998</v>
+      </c>
+      <c r="E21">
+        <v>-30124.9843</v>
+      </c>
+      <c r="F21">
+        <v>26876.83339</v>
+      </c>
+      <c r="G21">
+        <v>481.99999989999998</v>
+      </c>
+      <c r="H21">
+        <v>-30124.9843</v>
+      </c>
+      <c r="I21">
+        <v>26820.83339</v>
+      </c>
+      <c r="J21">
+        <v>481.99999989999998</v>
+      </c>
+      <c r="K21">
+        <v>200</v>
+      </c>
+      <c r="L21">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>-30124.9843</v>
+      </c>
+      <c r="C22">
+        <v>25498.049139999999</v>
+      </c>
+      <c r="D22">
+        <v>481.99999989999998</v>
+      </c>
+      <c r="E22">
+        <v>-30124.9843</v>
+      </c>
+      <c r="F22">
+        <v>25526.049139999999</v>
+      </c>
+      <c r="G22">
+        <v>481.99999989999998</v>
+      </c>
+      <c r="H22">
+        <v>-30124.9843</v>
+      </c>
+      <c r="I22">
+        <v>25470.049139999999</v>
+      </c>
+      <c r="J22">
+        <v>481.99999989999998</v>
+      </c>
+      <c r="K22">
+        <v>200</v>
+      </c>
+      <c r="L22">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>32070.176340000002</v>
+      </c>
+      <c r="C23">
+        <v>30701.632150000001</v>
+      </c>
+      <c r="D23">
+        <v>819.98749989999999</v>
+      </c>
+      <c r="E23">
+        <v>32070.176340000002</v>
+      </c>
+      <c r="F23">
+        <v>30523.632150000001</v>
+      </c>
+      <c r="G23">
+        <v>819.98749989999999</v>
+      </c>
+      <c r="H23">
+        <v>32070.176340000002</v>
+      </c>
+      <c r="I23">
+        <v>30879.632150000001</v>
+      </c>
+      <c r="J23">
+        <v>819.98749989999999</v>
+      </c>
+      <c r="K23">
+        <v>150</v>
+      </c>
+      <c r="L23">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>32070.176340000002</v>
+      </c>
+      <c r="C24">
+        <v>32414.423050000001</v>
+      </c>
+      <c r="D24">
+        <v>500.00000019999999</v>
+      </c>
+      <c r="E24">
+        <v>32070.176340000002</v>
+      </c>
+      <c r="F24">
+        <v>32444.348050000001</v>
+      </c>
+      <c r="G24">
+        <v>500.00000019999999</v>
+      </c>
+      <c r="H24">
+        <v>32070.176340000002</v>
+      </c>
+      <c r="I24">
+        <v>32384.498049999998</v>
+      </c>
+      <c r="J24">
+        <v>500.00000019999999</v>
+      </c>
+      <c r="K24">
+        <v>150</v>
+      </c>
+      <c r="L24">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>32070.176340000002</v>
+      </c>
+      <c r="C25">
+        <v>30358.732650000002</v>
+      </c>
+      <c r="D25">
+        <v>819.98749989999999</v>
+      </c>
+      <c r="E25">
+        <v>32070.176340000002</v>
+      </c>
+      <c r="F25">
+        <v>30328.807649999999</v>
+      </c>
+      <c r="G25">
+        <v>819.98749989999999</v>
+      </c>
+      <c r="H25">
+        <v>32070.176340000002</v>
+      </c>
+      <c r="I25">
+        <v>30388.657650000001</v>
+      </c>
+      <c r="J25">
+        <v>819.98749989999999</v>
+      </c>
+      <c r="K25">
+        <v>150</v>
+      </c>
+      <c r="L25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>30520.385460000001</v>
+      </c>
+      <c r="C26">
+        <v>30701.632150000001</v>
+      </c>
+      <c r="D26">
+        <v>819.98749989999999</v>
+      </c>
+      <c r="E26">
+        <v>30520.385460000001</v>
+      </c>
+      <c r="F26">
+        <v>30523.632150000001</v>
+      </c>
+      <c r="G26">
+        <v>819.98749989999999</v>
+      </c>
+      <c r="H26">
+        <v>30520.385460000001</v>
+      </c>
+      <c r="I26">
+        <v>30879.632150000001</v>
+      </c>
+      <c r="J26">
+        <v>819.98749989999999</v>
+      </c>
+      <c r="K26">
+        <v>150</v>
+      </c>
+      <c r="L26">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>30520.385460000001</v>
+      </c>
+      <c r="C27">
+        <v>32404.423050000001</v>
+      </c>
+      <c r="D27">
+        <v>500.00000019999999</v>
+      </c>
+      <c r="E27">
+        <v>30520.385460000001</v>
+      </c>
+      <c r="F27">
+        <v>32434.348050000001</v>
+      </c>
+      <c r="G27">
+        <v>500.00000019999999</v>
+      </c>
+      <c r="H27">
+        <v>30520.385460000001</v>
+      </c>
+      <c r="I27">
+        <v>32374.498049999998</v>
+      </c>
+      <c r="J27">
+        <v>500.00000019999999</v>
+      </c>
+      <c r="K27">
+        <v>150</v>
+      </c>
+      <c r="L27">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>30520.385460000001</v>
+      </c>
+      <c r="C28">
+        <v>30358.732650000002</v>
+      </c>
+      <c r="D28">
+        <v>819.98749989999999</v>
+      </c>
+      <c r="E28">
+        <v>30520.385460000001</v>
+      </c>
+      <c r="F28">
+        <v>30328.807649999999</v>
+      </c>
+      <c r="G28">
+        <v>819.98749989999999</v>
+      </c>
+      <c r="H28">
+        <v>30520.385460000001</v>
+      </c>
+      <c r="I28">
+        <v>30388.657650000001</v>
+      </c>
+      <c r="J28">
+        <v>819.98749989999999</v>
+      </c>
+      <c r="K28">
+        <v>150</v>
+      </c>
+      <c r="L28">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>28965.385460000001</v>
+      </c>
+      <c r="C29">
+        <v>30701.632150000001</v>
+      </c>
+      <c r="D29">
+        <v>819.98749989999999</v>
+      </c>
+      <c r="E29">
+        <v>28965.385460000001</v>
+      </c>
+      <c r="F29">
+        <v>30523.632150000001</v>
+      </c>
+      <c r="G29">
+        <v>819.98749989999999</v>
+      </c>
+      <c r="H29">
+        <v>28965.385460000001</v>
+      </c>
+      <c r="I29">
+        <v>30879.632150000001</v>
+      </c>
+      <c r="J29">
+        <v>819.98749989999999</v>
+      </c>
+      <c r="K29">
+        <v>150</v>
+      </c>
+      <c r="L29">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>28965.385460000001</v>
+      </c>
+      <c r="C30">
+        <v>32384.423050000001</v>
+      </c>
+      <c r="D30">
+        <v>500.00000019999999</v>
+      </c>
+      <c r="E30">
+        <v>28965.385460000001</v>
+      </c>
+      <c r="F30">
+        <v>32414.348050000001</v>
+      </c>
+      <c r="G30">
+        <v>500.00000019999999</v>
+      </c>
+      <c r="H30">
+        <v>28965.385460000001</v>
+      </c>
+      <c r="I30">
+        <v>32354.498049999998</v>
+      </c>
+      <c r="J30">
+        <v>500.00000019999999</v>
+      </c>
+      <c r="K30">
+        <v>150</v>
+      </c>
+      <c r="L30">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>28965.385460000001</v>
+      </c>
+      <c r="C31">
+        <v>30358.732650000002</v>
+      </c>
+      <c r="D31">
+        <v>819.98749989999999</v>
+      </c>
+      <c r="E31">
+        <v>28965.385460000001</v>
+      </c>
+      <c r="F31">
+        <v>30328.807649999999</v>
+      </c>
+      <c r="G31">
+        <v>819.98749989999999</v>
+      </c>
+      <c r="H31">
+        <v>28965.385460000001</v>
+      </c>
+      <c r="I31">
+        <v>30388.657650000001</v>
+      </c>
+      <c r="J31">
+        <v>819.98749989999999</v>
+      </c>
+      <c r="K31">
+        <v>150</v>
+      </c>
+      <c r="L31">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>28541.48317</v>
+      </c>
+      <c r="C32">
+        <v>30023.833149999999</v>
+      </c>
+      <c r="D32">
+        <v>2038.643691</v>
+      </c>
+      <c r="E32">
+        <v>28541.48317</v>
+      </c>
+      <c r="F32">
+        <v>30023.833149999999</v>
+      </c>
+      <c r="G32">
+        <v>2068.5686909999999</v>
+      </c>
+      <c r="H32">
+        <v>28541.48317</v>
+      </c>
+      <c r="I32">
+        <v>30023.833149999999</v>
+      </c>
+      <c r="J32">
+        <v>2008.718691</v>
+      </c>
+      <c r="K32">
+        <v>150</v>
+      </c>
+      <c r="L32">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>28541.48317</v>
+      </c>
+      <c r="C33">
+        <v>30023.833149999999</v>
+      </c>
+      <c r="D33">
+        <v>2694.5870810000001</v>
+      </c>
+      <c r="E33">
+        <v>28541.48317</v>
+      </c>
+      <c r="F33">
+        <v>30023.833149999999</v>
+      </c>
+      <c r="G33">
+        <v>2724.5120809999999</v>
+      </c>
+      <c r="H33">
+        <v>28541.48317</v>
+      </c>
+      <c r="I33">
+        <v>30023.833149999999</v>
+      </c>
+      <c r="J33">
+        <v>2664.6620809999999</v>
+      </c>
+      <c r="K33">
+        <v>150</v>
+      </c>
+      <c r="L33">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>32557.318449999999</v>
+      </c>
+      <c r="C34">
+        <v>30023.833149999999</v>
+      </c>
+      <c r="D34">
+        <v>2380</v>
+      </c>
+      <c r="E34">
+        <v>32557.318449999999</v>
+      </c>
+      <c r="F34">
+        <v>30023.833149999999</v>
+      </c>
+      <c r="G34">
+        <v>2407.3000000000002</v>
+      </c>
+      <c r="H34">
+        <v>32557.318449999999</v>
+      </c>
+      <c r="I34">
+        <v>30023.833149999999</v>
+      </c>
+      <c r="J34">
+        <v>2352.6999999999998</v>
+      </c>
+      <c r="K34">
+        <v>100</v>
+      </c>
+      <c r="L34">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>32557.318449999999</v>
+      </c>
+      <c r="C35">
+        <v>30023.833149999999</v>
+      </c>
+      <c r="D35">
+        <v>1880</v>
+      </c>
+      <c r="E35">
+        <v>32557.318449999999</v>
+      </c>
+      <c r="F35">
+        <v>30023.833149999999</v>
+      </c>
+      <c r="G35">
+        <v>1907.3</v>
+      </c>
+      <c r="H35">
+        <v>32557.318449999999</v>
+      </c>
+      <c r="I35">
+        <v>30023.833149999999</v>
+      </c>
+      <c r="J35">
+        <v>1852.7</v>
+      </c>
+      <c r="K35">
+        <v>100</v>
+      </c>
+      <c r="L35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>32917.318449999999</v>
+      </c>
+      <c r="C36">
+        <v>30023.833149999999</v>
+      </c>
+      <c r="D36">
+        <v>2068.5686909999999</v>
+      </c>
+      <c r="E36">
+        <v>32917.318449999999</v>
+      </c>
+      <c r="F36">
+        <v>30023.833149999999</v>
+      </c>
+      <c r="G36">
+        <v>2041.268691</v>
+      </c>
+      <c r="H36">
+        <v>32917.318449999999</v>
+      </c>
+      <c r="I36">
+        <v>30023.833149999999</v>
+      </c>
+      <c r="J36">
+        <v>2095.8686910000001</v>
+      </c>
+      <c r="K36">
+        <v>100</v>
+      </c>
+      <c r="L36">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>28101.48317</v>
+      </c>
+      <c r="C37">
+        <v>30023.833149999999</v>
+      </c>
+      <c r="D37">
+        <v>2305.25</v>
+      </c>
+      <c r="E37">
+        <v>28101.48317</v>
+      </c>
+      <c r="F37">
+        <v>30023.833149999999</v>
+      </c>
+      <c r="G37">
+        <v>2275.3249999999998</v>
+      </c>
+      <c r="H37">
+        <v>28101.48317</v>
+      </c>
+      <c r="I37">
+        <v>30023.833149999999</v>
+      </c>
+      <c r="J37">
+        <v>2335.1750000000002</v>
+      </c>
+      <c r="K37">
+        <v>150</v>
+      </c>
+      <c r="L37">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>39782.885459999998</v>
+      </c>
+      <c r="C38">
+        <v>26018.353350000001</v>
+      </c>
+      <c r="D38">
+        <v>7300</v>
+      </c>
+      <c r="E38">
+        <v>39707.885459999998</v>
+      </c>
+      <c r="F38">
+        <v>26018.353350000001</v>
+      </c>
+      <c r="G38">
+        <v>7300</v>
+      </c>
+      <c r="H38">
+        <v>39857.885459999998</v>
+      </c>
+      <c r="I38">
+        <v>26018.353350000001</v>
+      </c>
+      <c r="J38">
+        <v>7300</v>
+      </c>
+      <c r="K38">
+        <v>200</v>
+      </c>
+      <c r="L38">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>48255.065600000002</v>
+      </c>
+      <c r="C39">
+        <v>26599.793150000001</v>
+      </c>
+      <c r="D39">
+        <v>7300</v>
+      </c>
+      <c r="E39">
+        <v>48255.065600000002</v>
+      </c>
+      <c r="F39">
+        <v>26524.793150000001</v>
+      </c>
+      <c r="G39">
+        <v>7300</v>
+      </c>
+      <c r="H39">
+        <v>48255.065600000002</v>
+      </c>
+      <c r="I39">
+        <v>26674.793150000001</v>
+      </c>
+      <c r="J39">
+        <v>7300</v>
+      </c>
+      <c r="K39">
+        <v>200</v>
+      </c>
+      <c r="L39">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>41808.39503</v>
+      </c>
+      <c r="C40">
+        <v>27450.370320000002</v>
+      </c>
+      <c r="D40">
+        <v>6637.5</v>
+      </c>
+      <c r="E40">
+        <v>41808.39503</v>
+      </c>
+      <c r="F40">
+        <v>27450.370320000002</v>
+      </c>
+      <c r="G40">
+        <v>6562.5</v>
+      </c>
+      <c r="H40">
+        <v>41808.39503</v>
+      </c>
+      <c r="I40">
+        <v>27450.370320000002</v>
+      </c>
+      <c r="J40">
+        <v>6712.5</v>
+      </c>
+      <c r="K40">
+        <v>250</v>
+      </c>
+      <c r="L40">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>42545.169349999996</v>
+      </c>
+      <c r="C41">
+        <v>27450.370320000002</v>
+      </c>
+      <c r="D41">
+        <v>6675</v>
+      </c>
+      <c r="E41">
+        <v>42545.169349999996</v>
+      </c>
+      <c r="F41">
+        <v>27450.370320000002</v>
+      </c>
+      <c r="G41">
+        <v>6600</v>
+      </c>
+      <c r="H41">
+        <v>42545.169349999996</v>
+      </c>
+      <c r="I41">
+        <v>27450.370320000002</v>
+      </c>
+      <c r="J41">
+        <v>6750</v>
+      </c>
+      <c r="K41">
+        <v>250</v>
+      </c>
+      <c r="L41">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>45558.822330000003</v>
+      </c>
+      <c r="C42">
+        <v>27449.244170000002</v>
+      </c>
+      <c r="D42">
+        <v>6675</v>
+      </c>
+      <c r="E42">
+        <v>45558.822330000003</v>
+      </c>
+      <c r="F42">
+        <v>27449.244170000002</v>
+      </c>
+      <c r="G42">
+        <v>6750</v>
+      </c>
+      <c r="H42">
+        <v>45558.822330000003</v>
+      </c>
+      <c r="I42">
+        <v>27449.244170000002</v>
+      </c>
+      <c r="J42">
+        <v>6600</v>
+      </c>
+      <c r="K42">
+        <v>250</v>
+      </c>
+      <c r="L42">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>46860.564180000001</v>
+      </c>
+      <c r="C43">
+        <v>27449.244170000002</v>
+      </c>
+      <c r="D43">
+        <v>6710</v>
+      </c>
+      <c r="E43">
+        <v>46860.564180000001</v>
+      </c>
+      <c r="F43">
+        <v>27449.244170000002</v>
+      </c>
+      <c r="G43">
+        <v>6635</v>
+      </c>
+      <c r="H43">
+        <v>46860.564180000001</v>
+      </c>
+      <c r="I43">
+        <v>27449.244170000002</v>
+      </c>
+      <c r="J43">
+        <v>6785</v>
+      </c>
+      <c r="K43">
+        <v>250</v>
+      </c>
+      <c r="L43">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>43322.435519999999</v>
+      </c>
+      <c r="C44">
+        <v>11249.547689999999</v>
+      </c>
+      <c r="D44">
+        <v>480.00000010000002</v>
+      </c>
+      <c r="E44">
+        <v>43397.435519999999</v>
+      </c>
+      <c r="F44">
+        <v>11249.547689999999</v>
+      </c>
+      <c r="G44">
+        <v>480.00000010000002</v>
+      </c>
+      <c r="H44">
+        <v>43247.435519999999</v>
+      </c>
+      <c r="I44">
+        <v>11249.547689999999</v>
+      </c>
+      <c r="J44">
+        <v>480.00000010000002</v>
+      </c>
+      <c r="K44">
+        <v>100</v>
+      </c>
+      <c r="L44">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>43247.809079999999</v>
+      </c>
+      <c r="C45">
+        <v>9649.1067390000007</v>
+      </c>
+      <c r="D45">
+        <v>480.00000010000002</v>
+      </c>
+      <c r="E45">
+        <v>43322.809079999999</v>
+      </c>
+      <c r="F45">
+        <v>9649.1067390000007</v>
+      </c>
+      <c r="G45">
+        <v>480.00000010000002</v>
+      </c>
+      <c r="H45">
+        <v>43172.809079999999</v>
+      </c>
+      <c r="I45">
+        <v>9649.1067390000007</v>
+      </c>
+      <c r="J45">
+        <v>480.00000010000002</v>
+      </c>
+      <c r="K45">
+        <v>100</v>
+      </c>
+      <c r="L45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>-1027.4959940000001</v>
+      </c>
+      <c r="C46">
+        <v>41653.625719999996</v>
+      </c>
+      <c r="D46">
+        <v>11000</v>
+      </c>
+      <c r="E46">
+        <v>-1027.4959940000001</v>
+      </c>
+      <c r="F46">
+        <v>41653.625719999996</v>
+      </c>
+      <c r="G46">
+        <v>11035.174999999999</v>
+      </c>
+      <c r="H46">
+        <v>-1027.4959940000001</v>
+      </c>
+      <c r="I46">
+        <v>41653.625719999996</v>
+      </c>
+      <c r="J46">
+        <v>10964.825000000001</v>
+      </c>
+      <c r="K46">
+        <v>250</v>
+      </c>
+      <c r="L46">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>-1027.4959940000001</v>
+      </c>
+      <c r="C47">
+        <v>39253.625719999996</v>
+      </c>
+      <c r="D47">
+        <v>11000</v>
+      </c>
+      <c r="E47">
+        <v>-1027.4959940000001</v>
+      </c>
+      <c r="F47">
+        <v>39253.625719999996</v>
+      </c>
+      <c r="G47">
+        <v>11035.174999999999</v>
+      </c>
+      <c r="H47">
+        <v>-1027.4959940000001</v>
+      </c>
+      <c r="I47">
+        <v>39253.625719999996</v>
+      </c>
+      <c r="J47">
+        <v>10964.825000000001</v>
+      </c>
+      <c r="K47">
+        <v>250</v>
+      </c>
+      <c r="L47">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>-1093.1987810000001</v>
+      </c>
+      <c r="C48">
+        <v>13643.62572</v>
+      </c>
+      <c r="D48">
+        <v>11000</v>
+      </c>
+      <c r="E48">
+        <v>-1093.1987810000001</v>
+      </c>
+      <c r="F48">
+        <v>13643.62572</v>
+      </c>
+      <c r="G48">
+        <v>11035.174999999999</v>
+      </c>
+      <c r="H48">
+        <v>-1093.1987810000001</v>
+      </c>
+      <c r="I48">
+        <v>13643.62572</v>
+      </c>
+      <c r="J48">
+        <v>10964.825000000001</v>
+      </c>
+      <c r="K48">
+        <v>250</v>
+      </c>
+      <c r="L48">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>-1093.1987810000001</v>
+      </c>
+      <c r="C49">
+        <v>11243.62572</v>
+      </c>
+      <c r="D49">
+        <v>11000</v>
+      </c>
+      <c r="E49">
+        <v>-1093.1987810000001</v>
+      </c>
+      <c r="F49">
+        <v>11243.62572</v>
+      </c>
+      <c r="G49">
+        <v>11035.174999999999</v>
+      </c>
+      <c r="H49">
+        <v>-1093.1987810000001</v>
+      </c>
+      <c r="I49">
+        <v>11243.62572</v>
+      </c>
+      <c r="J49">
+        <v>10964.825000000001</v>
+      </c>
+      <c r="K49">
+        <v>250</v>
+      </c>
+      <c r="L49">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>46772.735009999997</v>
+      </c>
+      <c r="C50">
+        <v>8798.8331500000004</v>
+      </c>
+      <c r="D50">
+        <v>1200</v>
+      </c>
+      <c r="E50">
+        <v>46597.735009999997</v>
+      </c>
+      <c r="F50">
+        <v>8798.8331500000004</v>
+      </c>
+      <c r="G50">
+        <v>1200</v>
+      </c>
+      <c r="H50">
+        <v>46947.735009999997</v>
+      </c>
+      <c r="I50">
+        <v>8798.8331500000004</v>
+      </c>
+      <c r="J50">
+        <v>1200</v>
+      </c>
+      <c r="K50">
+        <v>100</v>
+      </c>
+      <c r="L50">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L40"/>
   <sheetViews>
@@ -10939,7 +12865,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E969"/>
   <sheetViews>
@@ -24524,7 +26450,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I9"/>
   <sheetViews>
@@ -24799,7 +26725,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K52"/>
   <sheetViews>
